--- a/8 Manuscript, figures, tables and supplementary materials/s1_supplementary_file_1_fulltextscreen.xlsx
+++ b/8 Manuscript, figures, tables and supplementary materials/s1_supplementary_file_1_fulltextscreen.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiranlee/Documents/GitHub/GenderGapAcademiaCOVID-19PandemicMeta-Analysis/8 Manuscript, figures, tables and supplementary materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66471BBE-9FF6-D14A-AA6B-0EC752C29C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6667C25B-259C-7945-8883-92B8BEC78CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-2840" windowWidth="33600" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
-    <sheet name="Qualifiers missing" sheetId="2" r:id="rId2"/>
+    <sheet name="Qualifiers " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5310,8 +5310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -14873,7 +14873,7 @@
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
